--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3139.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3139.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9677493731549359</v>
+        <v>1.17206335067749</v>
       </c>
       <c r="B1">
-        <v>1.868513389226334</v>
+        <v>1.354991436004639</v>
       </c>
       <c r="C1">
-        <v>4.099980688737835</v>
+        <v>1.729769706726074</v>
       </c>
       <c r="D1">
-        <v>4.455621446684564</v>
+        <v>3.714582920074463</v>
       </c>
       <c r="E1">
-        <v>1.442185529652243</v>
+        <v>3.691559791564941</v>
       </c>
     </row>
   </sheetData>
